--- a/biology/Biologie cellulaire et moléculaire/Max_Theiler/Max_Theiler.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Max_Theiler/Max_Theiler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Theiler (30 janvier 1899 à Pretoria - 11 août 1972 à New Haven, Connecticut, États-Unis) est un médecin américain d'origine sud-africaine. Il a reçu le Prix Lasker en 1949 et le prix Nobel de physiologie ou médecine en 1951, il devient ainsi le premier africain lauréat du prix[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Theiler (30 janvier 1899 à Pretoria - 11 août 1972 à New Haven, Connecticut, États-Unis) est un médecin américain d'origine sud-africaine. Il a reçu le Prix Lasker en 1949 et le prix Nobel de physiologie ou médecine en 1951, il devient ainsi le premier africain lauréat du prix.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur de médecine tropicale à Harvard en 1923, il entre en 1930 à l'Institut Rockefeller.
-En 1951, il est lauréat du prix Nobel de physiologie ou médecine « pour ses découvertes sur la fièvre jaune et comment la combattre[1] ».
+En 1951, il est lauréat du prix Nobel de physiologie ou médecine « pour ses découvertes sur la fièvre jaune et comment la combattre ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Theiler est le fils de Sir Arnold Theiler, décoré de l'Ordre de Saint-Michel et Saint-Georges, fondateur et premier directeur de l'Institut vétérinaire d'Onderstepoort, et sa femme, Emma, Sophie Jegge ; il est également le frère de Gertrud Theiler, parasitologiste sud-africaine.
 </t>
